--- a/src/configfiles/Not_Allowed_Strings.xlsx
+++ b/src/configfiles/Not_Allowed_Strings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\d2e\src\configfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Node.js\d2e\src\configfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166DD689-CED8-4893-95B2-BA73A420DC79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36386A12-764C-494C-9811-28B0B1925539}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13920" yWindow="3390" windowWidth="27180" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -78,13 +78,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,8 +113,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -389,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +458,12 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>